--- a/漫展信息/上海-漫展信息.xlsx
+++ b/漫展信息/上海-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1408</v>
+        <v>1414</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1792,6 +1792,50 @@
           <t>https://show.bilibili.com/platform/detail.html?id=80321&amp;msource=Msearch_colligation</t>
         </is>
       </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1804,7 +1848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2292,7 +2336,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2594,6 +2638,50 @@
           <t>https://show.bilibili.com/platform/detail.html?id=78667&amp;msource=Msearch_colligation</t>
         </is>
       </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2606,7 +2694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2684,7 +2772,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2848,7 +2936,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2930,7 +3018,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2986,6 +3074,50 @@
           <t>https://show.bilibili.com/platform/detail.html?id=80171&amp;msource=Msearch_colligation</t>
         </is>
       </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2998,7 +3130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3076,7 +3208,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3281,7 +3413,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3486,7 +3618,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3732,7 +3864,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3814,7 +3946,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3855,7 +3987,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3896,7 +4028,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3978,7 +4110,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4019,7 +4151,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4060,7 +4192,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4142,7 +4274,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4265,7 +4397,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4347,7 +4479,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4429,7 +4561,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1408</v>
+        <v>1414</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4675,7 +4807,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -4757,7 +4889,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -4798,7 +4930,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -4962,7 +5094,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4977,6 +5109,50 @@
           <t>https://show.bilibili.com/platform/detail.html?id=80321&amp;msource=Msearch_colligation</t>
         </is>
       </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/漫展信息/上海-漫展信息.xlsx
+++ b/漫展信息/上海-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +477,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -512,15 +507,12 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H2" t="n">
         <v>139</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77862&amp;msource=Msearch_colligation</t>
         </is>
@@ -557,10 +549,7 @@
       <c r="H3" t="n">
         <v>80</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78809&amp;msource=Msearch_colligation</t>
         </is>
@@ -597,10 +586,7 @@
       <c r="H4" t="n">
         <v>55</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79166&amp;msource=Msearch_colligation</t>
         </is>
@@ -632,15 +618,12 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H5" t="n">
         <v>68</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80548&amp;msource=Msearch_colligation</t>
         </is>
@@ -672,15 +655,12 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79046&amp;msource=Msearch_colligation</t>
         </is>
@@ -712,15 +692,12 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H7" t="n">
         <v>78</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80284&amp;msource=Msearch_colligation</t>
         </is>
@@ -757,10 +734,7 @@
       <c r="H8" t="n">
         <v>59</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80045&amp;msource=Msearch_colligation</t>
         </is>
@@ -797,10 +771,7 @@
       <c r="H9" t="n">
         <v>68</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80979&amp;msource=Msearch_colligation</t>
         </is>
@@ -832,15 +803,12 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="H10" t="n">
         <v>49</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80204&amp;msource=Msearch_colligation</t>
         </is>
@@ -872,15 +840,12 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H11" t="n">
         <v>129</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80167&amp;msource=Msearch_colligation</t>
         </is>
@@ -919,10 +884,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78523&amp;msource=Msearch_colligation</t>
         </is>
@@ -954,15 +916,12 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H13" t="n">
         <v>36.9</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80871&amp;msource=Msearch_colligation</t>
         </is>
@@ -999,10 +958,7 @@
       <c r="H14" t="n">
         <v>60</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80999&amp;msource=Msearch_colligation</t>
         </is>
@@ -1039,10 +995,7 @@
       <c r="H15" t="n">
         <v>83</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79332&amp;msource=Msearch_colligation</t>
         </is>
@@ -1074,15 +1027,12 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="H16" t="n">
         <v>60</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80646&amp;msource=Msearch_colligation</t>
         </is>
@@ -1119,10 +1069,7 @@
       <c r="H17" t="n">
         <v>99</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80945&amp;msource=Msearch_colligation</t>
         </is>
@@ -1154,15 +1101,12 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
         <v>88</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81199&amp;msource=Msearch_colligation</t>
         </is>
@@ -1199,10 +1143,7 @@
       <c r="H19" t="n">
         <v>98</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79938&amp;msource=Msearch_colligation</t>
         </is>
@@ -1239,10 +1180,7 @@
       <c r="H20" t="n">
         <v>49</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81192&amp;msource=Msearch_colligation</t>
         </is>
@@ -1274,15 +1212,12 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" t="n">
         <v>49</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80691&amp;msource=Msearch_colligation</t>
         </is>
@@ -1314,15 +1249,12 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H22" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80497&amp;msource=Msearch_colligation</t>
         </is>
@@ -1354,15 +1286,12 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H23" t="n">
         <v>80</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81148&amp;msource=Msearch_colligation</t>
         </is>
@@ -1399,10 +1328,7 @@
       <c r="H24" t="n">
         <v>48</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80339&amp;msource=Msearch_colligation</t>
         </is>
@@ -1434,15 +1360,12 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="H25" t="n">
         <v>65.8</v>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77754&amp;msource=Msearch_colligation</t>
         </is>
@@ -1479,10 +1402,7 @@
       <c r="H26" t="n">
         <v>49</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81238&amp;msource=Msearch_colligation</t>
         </is>
@@ -1514,15 +1434,12 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H27" t="n">
         <v>60</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80299&amp;msource=Msearch_colligation</t>
         </is>
@@ -1559,10 +1476,7 @@
       <c r="H28" t="n">
         <v>60</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80575&amp;msource=Msearch_colligation</t>
         </is>
@@ -1594,15 +1508,12 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>70</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81173&amp;msource=Msearch_colligation</t>
         </is>
@@ -1639,10 +1550,7 @@
       <c r="H30" t="n">
         <v>58</v>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80571&amp;msource=Msearch_colligation</t>
         </is>
@@ -1679,10 +1587,7 @@
       <c r="H31" t="n">
         <v>73</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=76410&amp;msource=Msearch_colligation</t>
         </is>
@@ -1714,15 +1619,12 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
         <v>40</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81138&amp;msource=Msearch_colligation</t>
         </is>
@@ -1759,10 +1661,7 @@
       <c r="H33" t="n">
         <v>60</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78228&amp;msource=Msearch_colligation</t>
         </is>
@@ -1799,10 +1698,7 @@
       <c r="H34" t="n">
         <v>80</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78657&amp;msource=Msearch_colligation</t>
         </is>
@@ -1839,10 +1735,7 @@
       <c r="H35" t="n">
         <v>70</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81204&amp;msource=Msearch_colligation</t>
         </is>
@@ -1874,15 +1767,12 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H36" t="n">
         <v>79</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80321&amp;msource=Msearch_colligation</t>
         </is>
@@ -1919,10 +1809,7 @@
       <c r="H37" t="n">
         <v>89</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80835&amp;msource=Msearch_colligation</t>
         </is>
@@ -1940,7 +1827,6 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1954,7 +1840,6 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1973,7 +1858,6 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1986,7 +1870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2035,11 +1919,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -2077,10 +1956,7 @@
           <t>已停售</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80057&amp;msource=Msearch_colligation</t>
         </is>
@@ -2119,10 +1995,7 @@
           <t>已停售</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80103&amp;msource=Msearch_colligation</t>
         </is>
@@ -2161,10 +2034,7 @@
           <t>已停售</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79939&amp;msource=Msearch_colligation</t>
         </is>
@@ -2198,13 +2068,12 @@
       <c r="G5" t="n">
         <v>91</v>
       </c>
-      <c r="H5" t="n">
-        <v>380</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>已停售</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79641&amp;msource=Msearch_colligation</t>
         </is>
@@ -2241,10 +2110,7 @@
       <c r="H6" t="n">
         <v>80</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78418&amp;msource=Msearch_colligation</t>
         </is>
@@ -2281,10 +2147,7 @@
       <c r="H7" t="n">
         <v>88</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80277&amp;msource=Msearch_colligation</t>
         </is>
@@ -2321,10 +2184,7 @@
       <c r="H8" t="n">
         <v>120</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79783&amp;msource=Msearch_colligation</t>
         </is>
@@ -2361,10 +2221,7 @@
       <c r="H9" t="n">
         <v>278</v>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77773&amp;msource=Msearch_colligation</t>
         </is>
@@ -2396,15 +2253,12 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H10" t="n">
         <v>380</v>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80128&amp;msource=Msearch_colligation</t>
         </is>
@@ -2441,10 +2295,7 @@
       <c r="H11" t="n">
         <v>480</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80734&amp;msource=Msearch_colligation</t>
         </is>
@@ -2483,10 +2334,7 @@
           <t>已停售</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80615&amp;msource=Msearch_colligation</t>
         </is>
@@ -2523,10 +2371,7 @@
       <c r="H13" t="n">
         <v>158</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80639&amp;msource=Msearch_colligation</t>
         </is>
@@ -2563,10 +2408,7 @@
       <c r="H14" t="n">
         <v>380</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80142&amp;msource=Msearch_colligation</t>
         </is>
@@ -2603,10 +2445,7 @@
       <c r="H15" t="n">
         <v>580</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80993&amp;msource=Msearch_colligation</t>
         </is>
@@ -2638,15 +2477,12 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H16" t="n">
         <v>380</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80924&amp;msource=Msearch_colligation</t>
         </is>
@@ -2683,10 +2519,7 @@
       <c r="H17" t="n">
         <v>72</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81241&amp;msource=Msearch_colligation</t>
         </is>
@@ -2723,10 +2556,7 @@
       <c r="H18" t="n">
         <v>380</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80811&amp;msource=Msearch_colligation</t>
         </is>
@@ -2763,10 +2593,7 @@
       <c r="H19" t="n">
         <v>80</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81112&amp;msource=Msearch_colligation</t>
         </is>
@@ -2798,15 +2625,12 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="H20" t="n">
         <v>480</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81039&amp;msource=Msearch_colligation</t>
         </is>
@@ -2843,10 +2667,7 @@
       <c r="H21" t="n">
         <v>80</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80875&amp;msource=Msearch_colligation</t>
         </is>
@@ -2878,15 +2699,12 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="H22" t="n">
         <v>480</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81190&amp;msource=Msearch_colligation</t>
         </is>
@@ -2918,15 +2736,12 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" t="n">
         <v>280</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80906&amp;msource=Msearch_colligation</t>
         </is>
@@ -2963,10 +2778,7 @@
       <c r="H24" t="n">
         <v>80</v>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80050&amp;msource=Msearch_colligation</t>
         </is>
@@ -3003,10 +2815,7 @@
       <c r="H25" t="n">
         <v>80</v>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78667&amp;msource=Msearch_colligation</t>
         </is>
@@ -3043,10 +2852,7 @@
       <c r="H26" t="n">
         <v>80</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81135&amp;msource=Msearch_colligation</t>
         </is>
@@ -3083,10 +2889,7 @@
       <c r="H27" t="n">
         <v>280</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81139&amp;msource=Msearch_colligation</t>
         </is>
@@ -3104,7 +2907,6 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3118,7 +2920,6 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3137,7 +2938,6 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3150,7 +2950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3199,11 +2999,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -3239,10 +3034,7 @@
       <c r="H2" t="n">
         <v>60</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=70666&amp;msource=Msearch_colligation</t>
         </is>
@@ -3279,10 +3071,7 @@
       <c r="H3" t="n">
         <v>996</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77530&amp;msource=Msearch_colligation</t>
         </is>
@@ -3319,10 +3108,7 @@
       <c r="H4" t="n">
         <v>49.9</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79057&amp;msource=Msearch_colligation</t>
         </is>
@@ -3354,15 +3140,12 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="H5" t="n">
         <v>30</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79005&amp;msource=Msearch_colligation</t>
         </is>
@@ -3394,15 +3177,12 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="H6" t="n">
         <v>30</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79292&amp;msource=Msearch_colligation</t>
         </is>
@@ -3414,39 +3194,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上海·非人哉官方授权主题店</t>
+          <t>上海·次元波板糖×时光代理人「锦瑟华年主题快闪店」</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>南京东路830号第一百货商业中心B馆5楼(海底捞旁边) 第一百货商业中心</t>
+          <t>西藏北路166静安大悦城北座6楼611号 次元波板糖</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.12.09 00:00-2024.01.22 23:59</t>
+          <t>2023.12.31 00:00-2024.01.29 23:59</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>673</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>已停售</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79240&amp;msource=Msearch_colligation</t>
+        <v>819</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79972&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3456,37 +3231,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-01-06</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上海·次元波板糖×时光代理人「锦瑟华年主题快闪店」</t>
+          <t>上海·罗小黑 x HAPPY ZOO主题Cafe</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>西藏北路166静安大悦城北座6楼611号 次元波板糖</t>
+          <t>南京东路340号 百联zx创趣场</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.12.31 00:00-2024.01.29 23:59</t>
+          <t>2024.01.06 00:00-01.31 23:59</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>818</v>
+        <v>700</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79972&amp;msource=Msearch_colligation</t>
+        <v>10</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80171&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3494,41 +3266,14 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2024-01-06</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上海·罗小黑 x HAPPY ZOO主题Cafe</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>南京东路340号 百联zx创趣场</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2024.01.06 00:00-01.31 23:59</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>699</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80171&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -3542,13 +3287,17 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -3556,26 +3305,6 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3588,7 +3317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3637,11 +3366,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -3677,10 +3401,7 @@
       <c r="H2" t="n">
         <v>60</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=70666&amp;msource=Msearch_colligation</t>
         </is>
@@ -3717,10 +3438,7 @@
       <c r="H3" t="n">
         <v>996</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77530&amp;msource=Msearch_colligation</t>
         </is>
@@ -3757,10 +3475,7 @@
       <c r="H4" t="n">
         <v>49.9</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79057&amp;msource=Msearch_colligation</t>
         </is>
@@ -3792,15 +3507,12 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H5" t="n">
         <v>139</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77862&amp;msource=Msearch_colligation</t>
         </is>
@@ -3832,15 +3544,12 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="H6" t="n">
         <v>30</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79005&amp;msource=Msearch_colligation</t>
         </is>
@@ -3872,15 +3581,12 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="H7" t="n">
         <v>30</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79292&amp;msource=Msearch_colligation</t>
         </is>
@@ -3917,10 +3623,7 @@
       <c r="H8" t="n">
         <v>80</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78809&amp;msource=Msearch_colligation</t>
         </is>
@@ -3957,10 +3660,7 @@
       <c r="H9" t="n">
         <v>55</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79166&amp;msource=Msearch_colligation</t>
         </is>
@@ -3999,10 +3699,7 @@
           <t>已停售</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80057&amp;msource=Msearch_colligation</t>
         </is>
@@ -4041,10 +3738,7 @@
           <t>已停售</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80103&amp;msource=Msearch_colligation</t>
         </is>
@@ -4076,15 +3770,12 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H12" t="n">
         <v>30</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79972&amp;msource=Msearch_colligation</t>
         </is>
@@ -4116,15 +3807,12 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80171&amp;msource=Msearch_colligation</t>
         </is>
@@ -4136,37 +3824,34 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上海·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
+          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>嘉兴路街道瑞虹路188号瑞虹天地月亮湾3层 Modern Sky LAB摩登天空(瑞虹天地店)</t>
+          <t>丁香路425号 上海东方艺术中心</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024.01.23 20:00-01.23 22:00</t>
+          <t>2024.01.26 19:30-01.26 21:30</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="H14" t="n">
-        <v>380</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79641&amp;msource=Msearch_colligation</t>
+        <v>80</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78418&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -4176,37 +3861,34 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上海·从Butter-Fly到夏目之爱してる —— “好想大声说爱你”动漫钢琴演奏会</t>
+          <t>上海·25时主题同人茶会</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>丁香路425号 上海东方艺术中心</t>
+          <t>沪太路3100号 尚大国际</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024.01.26 19:30-01.26 21:30</t>
+          <t>2024.01.27 12:00-01.27 18:00</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="H15" t="n">
-        <v>80</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78418&amp;msource=Msearch_colligation</t>
+        <v>68</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80548&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -4221,32 +3903,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上海·25时主题同人茶会</t>
+          <t>上海·Azurock」Azurose ACG Cover Live</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>沪太路3100号 尚大国际</t>
+          <t>愚园路1398号 育音堂音乐公园</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024.01.27 12:00-01.27 18:00</t>
+          <t>2024.01.27 19:00-01.27 21:30</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="H16" t="n">
-        <v>68</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80548&amp;msource=Msearch_colligation</t>
+        <v>88</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80277&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -4261,32 +3940,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上海·Azurock」Azurose ACG Cover Live</t>
+          <t>上海·SISPmini动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>愚园路1398号 育音堂音乐公园</t>
+          <t>淞虹路377号 长宁ArtPark大融城</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024.01.27 19:00-01.27 21:30</t>
+          <t>2024.01.27 13:00-01.28 19:00</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>59</v>
+        <v>367</v>
       </c>
       <c r="H17" t="n">
-        <v>88</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80277&amp;msource=Msearch_colligation</t>
+        <v>48</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79046&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -4301,32 +3977,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上海·SISPmini动漫游戏嘉年华</t>
+          <t>上海·同好召集令火影only</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>淞虹路377号 长宁ArtPark大融城</t>
+          <t>市真南路1199弄1号 智创TOP综合体产城</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024.01.27 13:00-01.28 19:00</t>
+          <t>2024.01.27 10:00-01.28 18:00</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>365</v>
+        <v>524</v>
       </c>
       <c r="H18" t="n">
-        <v>48</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79046&amp;msource=Msearch_colligation</t>
+        <v>78</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80284&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -4341,32 +4014,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上海·同好召集令火影only</t>
+          <t>上海·咒术only-幽暗之森1.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>市真南路1199弄1号 智创TOP综合体产城</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.28 18:00</t>
+          <t>2024.01.27 10:00-01.27 16:00</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>523</v>
+        <v>247</v>
       </c>
       <c r="H19" t="n">
-        <v>78</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80284&amp;msource=Msearch_colligation</t>
+        <v>59</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80045&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -4381,32 +4051,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上海·咒术only-幽暗之森1.0</t>
+          <t>上海·日本原版《数码宝贝舞台剧：游乐园之谜》</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
+          <t>茂名南路57号近长乐路 上海兰心大戏院</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 16:00</t>
+          <t>2024.01.27 15:30-01.27 20:55</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="H20" t="n">
-        <v>59</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80045&amp;msource=Msearch_colligation</t>
+        <v>120</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79783&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -4421,32 +4088,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上海·日本原版《数码宝贝舞台剧：游乐园之谜》</t>
+          <t>上海·第八届次元鹿角动漫游戏展</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>茂名南路57号近长乐路 上海兰心大戏院</t>
+          <t>吴中路1588号上海爱琴海购物中心F4 竞梦元宇宙</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024.01.27 15:30-01.27 20:55</t>
+          <t>2024.01.27 10:00-01.28 21:00</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>29</v>
+        <v>1154</v>
       </c>
       <c r="H21" t="n">
-        <v>120</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79783&amp;msource=Msearch_colligation</t>
+        <v>68</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80979&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -4461,32 +4125,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上海·第八届次元鹿角动漫游戏展</t>
+          <t>上海·魔都寒假漫展-CF01</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>吴中路1588号上海爱琴海购物中心F4 竞梦元宇宙</t>
+          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.28 21:00</t>
+          <t>2024.01.27 10:00-01.28 16:00</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1154</v>
+        <v>903</v>
       </c>
       <c r="H22" t="n">
-        <v>68</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80979&amp;msource=Msearch_colligation</t>
+        <v>49</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80204&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -4501,32 +4162,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上海·魔都寒假漫展-CF01</t>
+          <t>上海•Risa Yuzuki 1st ONEMAN LIVE 「Future Interlink」 追加公演</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>澳门路168号月星家居(江宁路地铁站1号口步行420米) 月星广场</t>
+          <t>愚园路1250号 新歌空间</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.28 16:00</t>
+          <t>2024.01.27 18:30-01.27 21:00</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>898</v>
+        <v>297</v>
       </c>
       <c r="H23" t="n">
-        <v>49</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80204&amp;msource=Msearch_colligation</t>
+        <v>278</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77773&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -4536,37 +4194,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>上海•Risa Yuzuki 1st ONEMAN LIVE 「Future Interlink」 追加公演</t>
+          <t>上海 ·WOW潮元原神x星铁主题二次元狂欢派对</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>愚园路1250号 新歌空间</t>
+          <t>政通路189号五角场万达广场C栋 元气森林livehouse</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024.01.27 18:30-01.27 21:00</t>
+          <t>2024.01.28 14:00-01.28 19:00</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>297</v>
+        <v>418</v>
       </c>
       <c r="H24" t="n">
-        <v>278</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77773&amp;msource=Msearch_colligation</t>
+        <v>129</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80167&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -4581,32 +4236,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上海 ·WOW潮元原神x星铁主题二次元狂欢派对</t>
+          <t>上海·坏孩纸物语の第32届动漫节之冬日季</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>政通路189号五角场万达广场C栋 元气森林livehouse</t>
+          <t>剑川路1000号 闵行龙湖天街</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024.01.28 14:00-01.28 19:00</t>
+          <t>2024.01.28 14:00-01.28 20:00</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>416</v>
+        <v>625</v>
       </c>
       <c r="H25" t="n">
-        <v>129</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80167&amp;msource=Msearch_colligation</t>
+        <v>36.9</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80871&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -4621,32 +4273,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上海·坏孩纸物语の第32届动漫节之冬日季</t>
+          <t>上海·次元裂缝-X 新年二次元偶像日</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>剑川路1000号 闵行龙湖天街</t>
+          <t>海潮路133号B1 JUMP工坊</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024.01.28 14:00-01.28 20:00</t>
+          <t>2024.01.28 14:00-01.28 18:00</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>624</v>
+        <v>49</v>
       </c>
       <c r="H26" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80871&amp;msource=Msearch_colligation</t>
+        <v>60</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80999&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -4681,10 +4330,7 @@
       <c r="H27" t="n">
         <v>83</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79332&amp;msource=Msearch_colligation</t>
         </is>
@@ -4716,15 +4362,12 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H28" t="n">
         <v>380</v>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80128&amp;msource=Msearch_colligation</t>
         </is>
@@ -4756,15 +4399,12 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="H29" t="n">
         <v>60</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80646&amp;msource=Msearch_colligation</t>
         </is>
@@ -4801,10 +4441,7 @@
       <c r="H30" t="n">
         <v>98</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79938&amp;msource=Msearch_colligation</t>
         </is>
@@ -4841,10 +4478,7 @@
       <c r="H31" t="n">
         <v>480</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80734&amp;msource=Msearch_colligation</t>
         </is>
@@ -4876,15 +4510,12 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="n">
         <v>49</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80691&amp;msource=Msearch_colligation</t>
         </is>
@@ -4916,15 +4547,12 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H33" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80497&amp;msource=Msearch_colligation</t>
         </is>
@@ -4956,15 +4584,12 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H34" t="n">
         <v>80</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81148&amp;msource=Msearch_colligation</t>
         </is>
@@ -5001,10 +4626,7 @@
       <c r="H35" t="n">
         <v>48</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80339&amp;msource=Msearch_colligation</t>
         </is>
@@ -5036,15 +4658,12 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="H36" t="n">
         <v>65.8</v>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77754&amp;msource=Msearch_colligation</t>
         </is>
@@ -5081,10 +4700,7 @@
       <c r="H37" t="n">
         <v>380</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80142&amp;msource=Msearch_colligation</t>
         </is>
@@ -5116,15 +4732,12 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H38" t="n">
         <v>60</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80299&amp;msource=Msearch_colligation</t>
         </is>
@@ -5156,15 +4769,12 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H39" t="n">
         <v>380</v>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80924&amp;msource=Msearch_colligation</t>
         </is>
@@ -5196,15 +4806,12 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H40" t="n">
         <v>380</v>
       </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80924&amp;msource=Msearch_colligation</t>
         </is>
@@ -5241,10 +4848,7 @@
       <c r="H41" t="n">
         <v>60</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80575&amp;msource=Msearch_colligation</t>
         </is>
@@ -5281,10 +4885,7 @@
       <c r="H42" t="n">
         <v>58</v>
       </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80571&amp;msource=Msearch_colligation</t>
         </is>
@@ -5321,10 +4922,7 @@
       <c r="H43" t="n">
         <v>73</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=76410&amp;msource=Msearch_colligation</t>
         </is>
@@ -5361,10 +4959,7 @@
       <c r="H44" t="n">
         <v>380</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80811&amp;msource=Msearch_colligation</t>
         </is>
@@ -5396,15 +4991,12 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H45" t="n">
         <v>280</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80906&amp;msource=Msearch_colligation</t>
         </is>
@@ -5436,15 +5028,12 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H46" t="n">
         <v>280</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80906&amp;msource=Msearch_colligation</t>
         </is>
@@ -5481,10 +5070,7 @@
       <c r="H47" t="n">
         <v>60</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78228&amp;msource=Msearch_colligation</t>
         </is>
@@ -5521,10 +5107,7 @@
       <c r="H48" t="n">
         <v>80</v>
       </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80050&amp;msource=Msearch_colligation</t>
         </is>
@@ -5561,10 +5144,7 @@
       <c r="H49" t="n">
         <v>80</v>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78667&amp;msource=Msearch_colligation</t>
         </is>
@@ -5601,10 +5181,7 @@
       <c r="H50" t="n">
         <v>80</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78657&amp;msource=Msearch_colligation</t>
         </is>
@@ -5636,15 +5213,12 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H51" t="n">
         <v>79</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80321&amp;msource=Msearch_colligation</t>
         </is>
@@ -5662,7 +5236,6 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5676,7 +5249,6 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5695,7 +5267,6 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
